--- a/graphcase_experiments/graphs/enron/data/jobtitles_creamer.xlsx
+++ b/graphcase_experiments/graphs/enron/data/jobtitles_creamer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonpoppe/workspace/graphcase_experiments/graphcase_experiments/graphcase_experiments/graphs/enron/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10CB4A0-7729-8F47-91C6-221BCA10052C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB346DE-9793-3547-BD42-E0916D9B539C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31300" yWindow="-10300" windowWidth="26580" windowHeight="28300" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3320" yWindow="500" windowWidth="20800" windowHeight="17300" tabRatio="204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -2741,10 +2741,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2811,7 +2812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="14.25" customHeight="1">
+    <row r="2" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>63.12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="14.25" customHeight="1">
+    <row r="3" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>60.35</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1">
+    <row r="4" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>52.17</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="14.25" customHeight="1">
+    <row r="5" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -3043,7 +3044,7 @@
         <v>50.65</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.25" customHeight="1">
+    <row r="6" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" t="s">
         <v>172</v>
       </c>
@@ -3101,7 +3102,7 @@
         <v>44.19</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25" customHeight="1">
+    <row r="7" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3159,7 +3160,7 @@
         <v>43.08</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1">
+    <row r="8" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3217,7 +3218,7 @@
         <v>42.55</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="14.25" customHeight="1">
+    <row r="9" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>41.55</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25" customHeight="1">
+    <row r="10" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3333,7 +3334,7 @@
         <v>41.51</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="14.25" customHeight="1">
+    <row r="11" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>39.83</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="14.25" customHeight="1">
+    <row r="12" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>34.96</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="14.25" customHeight="1">
+    <row r="13" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="14.25" customHeight="1">
+    <row r="14" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>33.909999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="14.25" customHeight="1">
+    <row r="15" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>30.74</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="14.25" customHeight="1">
+    <row r="16" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -3681,7 +3682,7 @@
         <v>30.08</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="14.25" customHeight="1">
+    <row r="17" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>178</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="14.25" customHeight="1">
+    <row r="18" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>179</v>
       </c>
@@ -3797,7 +3798,7 @@
         <v>29.54</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="14.25" customHeight="1">
+    <row r="19" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>180</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>29.4</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="14.25" customHeight="1">
+    <row r="20" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>29.32</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="14.25" customHeight="1">
+    <row r="21" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="14.25" customHeight="1">
+    <row r="22" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" t="s">
         <v>182</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>27.43</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="14.25" customHeight="1">
+    <row r="23" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -4088,7 +4089,7 @@
         <v>26.44</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="14.25" customHeight="1">
+    <row r="24" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -4146,7 +4147,7 @@
         <v>26.31</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="14.25" customHeight="1">
+    <row r="25" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -4204,7 +4205,7 @@
         <v>26.13</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="14.25" customHeight="1">
+    <row r="26" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" t="s">
         <v>183</v>
       </c>
@@ -4262,7 +4263,7 @@
         <v>25.85</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="14.25" customHeight="1">
+    <row r="27" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -4320,7 +4321,7 @@
         <v>25.11</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="14.25" customHeight="1">
+    <row r="28" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>24.65</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="14.25" customHeight="1">
+    <row r="30" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -4494,7 +4495,7 @@
         <v>24.14</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="14.25" customHeight="1">
+    <row r="31" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -4552,7 +4553,7 @@
         <v>23.69</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="14.25" customHeight="1">
+    <row r="32" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" t="s">
         <v>196</v>
       </c>
@@ -4610,7 +4611,7 @@
         <v>23.61</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.25" customHeight="1">
+    <row r="33" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" t="s">
         <v>195</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>23.59</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="14.25" customHeight="1">
+    <row r="34" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" t="s">
         <v>194</v>
       </c>
@@ -4726,7 +4727,7 @@
         <v>23.58</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="14.25" customHeight="1">
+    <row r="35" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="14.25" customHeight="1">
+    <row r="36" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="14.25" customHeight="1">
+    <row r="37" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -4900,7 +4901,7 @@
         <v>22.65</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="14.25" customHeight="1">
+    <row r="38" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="14.25" customHeight="1">
+    <row r="39" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -5016,7 +5017,7 @@
         <v>22.51</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="14.25" customHeight="1">
+    <row r="40" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -5074,7 +5075,7 @@
         <v>22.32</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" customHeight="1">
+    <row r="41" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A41" t="s">
         <v>56</v>
       </c>
@@ -5132,7 +5133,7 @@
         <v>22.18</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="14.25" customHeight="1">
+    <row r="42" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -5190,7 +5191,7 @@
         <v>22.07</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="14.25" customHeight="1">
+    <row r="43" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A43" t="s">
         <v>58</v>
       </c>
@@ -5248,7 +5249,7 @@
         <v>21.89</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" customHeight="1">
+    <row r="44" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A44" t="s">
         <v>59</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>20.97</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="14.25" customHeight="1">
+    <row r="45" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A45" t="s">
         <v>198</v>
       </c>
@@ -5364,7 +5365,7 @@
         <v>20.71</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="14.25" customHeight="1">
+    <row r="46" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -5422,7 +5423,7 @@
         <v>20.69</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="14.25" customHeight="1">
+    <row r="47" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" t="s">
         <v>62</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>20.57</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="14.25" customHeight="1">
+    <row r="48" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>20.350000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="14.25" customHeight="1">
+    <row r="49" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A49" t="s">
         <v>64</v>
       </c>
@@ -5596,7 +5597,7 @@
         <v>20.309999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="14.25" customHeight="1">
+    <row r="50" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A50" t="s">
         <v>65</v>
       </c>
@@ -5654,7 +5655,7 @@
         <v>19.170000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="14.25" customHeight="1">
+    <row r="51" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A51" t="s">
         <v>200</v>
       </c>
@@ -5712,7 +5713,7 @@
         <v>19.09</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="14.25" customHeight="1">
+    <row r="52" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A52" t="s">
         <v>67</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>18.82</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="14.25" customHeight="1">
+    <row r="53" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A53" t="s">
         <v>69</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>18.53</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="14.25" customHeight="1">
+    <row r="54" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A54" t="s">
         <v>71</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>18.13</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="14.25" customHeight="1">
+    <row r="55" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" t="s">
         <v>73</v>
       </c>
@@ -5944,7 +5945,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="14.25" customHeight="1">
+    <row r="56" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>17.48</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="14.25" customHeight="1">
+    <row r="57" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A57" t="s">
         <v>75</v>
       </c>
@@ -6060,7 +6061,7 @@
         <v>17.39</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="14.25" customHeight="1">
+    <row r="58" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A58" t="s">
         <v>202</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>17.32</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="14.25" customHeight="1">
+    <row r="59" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -6176,7 +6177,7 @@
         <v>16.850000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="14.25" customHeight="1">
+    <row r="60" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>16.29</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="14.25" customHeight="1">
+    <row r="61" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>16.16</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="14.25" customHeight="1">
+    <row r="62" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A62" t="s">
         <v>81</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="14.25" customHeight="1">
+    <row r="63" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -6408,7 +6409,7 @@
         <v>15.82</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="14.25" customHeight="1">
+    <row r="64" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>15.81</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="14.25" customHeight="1">
+    <row r="65" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A65" t="s">
         <v>85</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>15.76</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="14.25" customHeight="1">
+    <row r="66" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A66" t="s">
         <v>87</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>15.72</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="14.25" customHeight="1">
+    <row r="67" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -6640,7 +6641,7 @@
         <v>15.67</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="14.25" customHeight="1">
+    <row r="68" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A68" t="s">
         <v>89</v>
       </c>
@@ -6698,7 +6699,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="14.25" customHeight="1">
+    <row r="69" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A69" t="s">
         <v>90</v>
       </c>
@@ -6756,7 +6757,7 @@
         <v>15.31</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="14.25" customHeight="1">
+    <row r="70" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -6814,7 +6815,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="14.25" customHeight="1">
+    <row r="71" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -6872,7 +6873,7 @@
         <v>15.29</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="14.25" customHeight="1">
+    <row r="72" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>15.22</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="14.25" customHeight="1">
+    <row r="73" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -6988,7 +6989,7 @@
         <v>15.19</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="14.25" customHeight="1">
+    <row r="74" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -7046,7 +7047,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="14.25" customHeight="1">
+    <row r="75" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A75" t="s">
         <v>212</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>15.09</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="14.25" customHeight="1">
+    <row r="76" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A76" t="s">
         <v>213</v>
       </c>
@@ -7162,7 +7163,7 @@
         <v>15.07</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="14.25" customHeight="1">
+    <row r="77" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A77" t="s">
         <v>100</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="14.25" customHeight="1">
+    <row r="78" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" t="s">
         <v>101</v>
       </c>
@@ -7278,7 +7279,7 @@
         <v>14.61</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="14.25" customHeight="1">
+    <row r="79" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="14.25" customHeight="1">
+    <row r="80" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="14.25" customHeight="1">
+    <row r="81" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -7452,7 +7453,7 @@
         <v>14.45</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="14.25" customHeight="1">
+    <row r="82" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -7510,7 +7511,7 @@
         <v>14.39</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="14.25" customHeight="1">
+    <row r="83" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A83" t="s">
         <v>216</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>14.34</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="14.25" customHeight="1">
+    <row r="84" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A84" t="s">
         <v>107</v>
       </c>
@@ -7626,7 +7627,7 @@
         <v>14.22</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="14.25" customHeight="1">
+    <row r="85" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A85" t="s">
         <v>108</v>
       </c>
@@ -7684,7 +7685,7 @@
         <v>14.19</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="14.25" customHeight="1">
+    <row r="86" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>14.18</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="14.25" customHeight="1">
+    <row r="87" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A87" t="s">
         <v>217</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>14.09</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="14.25" customHeight="1">
+    <row r="88" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A88" t="s">
         <v>110</v>
       </c>
@@ -7858,7 +7859,7 @@
         <v>14.03</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="14.25" customHeight="1">
+    <row r="89" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A89" t="s">
         <v>111</v>
       </c>
@@ -7916,7 +7917,7 @@
         <v>14.01</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="14.25" customHeight="1">
+    <row r="90" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" t="s">
         <v>218</v>
       </c>
@@ -7974,7 +7975,7 @@
         <v>13.98</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="14.25" customHeight="1">
+    <row r="91" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A91" t="s">
         <v>219</v>
       </c>
@@ -8032,7 +8033,7 @@
         <v>13.89</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="14.25" customHeight="1">
+    <row r="92" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A92" t="s">
         <v>112</v>
       </c>
@@ -8090,7 +8091,7 @@
         <v>13.78</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="14.25" customHeight="1">
+    <row r="93" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>13.71</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="14.25" customHeight="1">
+    <row r="94" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -8206,7 +8207,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="14.25" customHeight="1">
+    <row r="95" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A95" t="s">
         <v>115</v>
       </c>
@@ -8264,7 +8265,7 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="14.25" customHeight="1">
+    <row r="96" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A96" t="s">
         <v>116</v>
       </c>
@@ -8322,7 +8323,7 @@
         <v>13.36</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="14.25" customHeight="1">
+    <row r="97" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -8380,7 +8381,7 @@
         <v>13.27</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="14.25" customHeight="1">
+    <row r="98" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A98" t="s">
         <v>119</v>
       </c>
@@ -8438,7 +8439,7 @@
         <v>13.19</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="14.25" customHeight="1">
+    <row r="99" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A99" t="s">
         <v>120</v>
       </c>
@@ -8496,7 +8497,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="14.25" customHeight="1">
+    <row r="100" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A100" t="s">
         <v>121</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>13.06</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="14.25" customHeight="1">
+    <row r="101" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A101" t="s">
         <v>122</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>13.03</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="14.25" customHeight="1">
+    <row r="102" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A102" t="s">
         <v>221</v>
       </c>
@@ -8670,7 +8671,7 @@
         <v>13.01</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="14.25" customHeight="1">
+    <row r="103" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A103" t="s">
         <v>123</v>
       </c>
@@ -8728,7 +8729,7 @@
         <v>12.95</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="14.25" customHeight="1">
+    <row r="104" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A104" t="s">
         <v>124</v>
       </c>
@@ -8786,7 +8787,7 @@
         <v>12.92</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="14.25" customHeight="1">
+    <row r="105" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A105" t="s">
         <v>125</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="14.25" customHeight="1">
+    <row r="106" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>12.79</v>
       </c>
     </row>
-    <row r="107" spans="1:18" ht="14.25" customHeight="1">
+    <row r="107" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A107" t="s">
         <v>127</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="14.25" customHeight="1">
+    <row r="108" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -9018,7 +9019,7 @@
         <v>12.67</v>
       </c>
     </row>
-    <row r="109" spans="1:18" ht="14.25" customHeight="1">
+    <row r="109" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A109" t="s">
         <v>130</v>
       </c>
@@ -9076,7 +9077,7 @@
         <v>12.63</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="14.25" customHeight="1">
+    <row r="110" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A110" t="s">
         <v>131</v>
       </c>
@@ -9134,7 +9135,7 @@
         <v>12.52</v>
       </c>
     </row>
-    <row r="111" spans="1:18" ht="14.25" customHeight="1">
+    <row r="111" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A111" t="s">
         <v>133</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="14.25" customHeight="1">
+    <row r="112" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A112" t="s">
         <v>226</v>
       </c>
@@ -9250,7 +9251,7 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="14.25" customHeight="1">
+    <row r="113" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A113" t="s">
         <v>134</v>
       </c>
@@ -9308,7 +9309,7 @@
         <v>12.27</v>
       </c>
     </row>
-    <row r="114" spans="1:18" ht="14.25" customHeight="1">
+    <row r="114" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A114" t="s">
         <v>136</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>12.15</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="14.25" customHeight="1">
+    <row r="115" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A115" t="s">
         <v>137</v>
       </c>
@@ -9424,7 +9425,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="14.25" customHeight="1">
+    <row r="116" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A116" t="s">
         <v>138</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="14.25" customHeight="1">
+    <row r="117" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A117" t="s">
         <v>139</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>11.91</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="14.25" customHeight="1">
+    <row r="118" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A118" t="s">
         <v>227</v>
       </c>
@@ -9598,7 +9599,7 @@
         <v>11.82</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="14.25" customHeight="1">
+    <row r="119" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A119" t="s">
         <v>228</v>
       </c>
@@ -9656,7 +9657,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="14.25" customHeight="1">
+    <row r="120" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A120" t="s">
         <v>229</v>
       </c>
@@ -9714,7 +9715,7 @@
         <v>11.73</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="14.25" customHeight="1">
+    <row r="121" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>11.65</v>
       </c>
     </row>
-    <row r="122" spans="1:18" ht="14.25" customHeight="1">
+    <row r="122" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A122" t="s">
         <v>143</v>
       </c>
@@ -9830,7 +9831,7 @@
         <v>11.56</v>
       </c>
     </row>
-    <row r="123" spans="1:18" ht="14.25" customHeight="1">
+    <row r="123" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -9888,7 +9889,7 @@
         <v>11.49</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="14.25" customHeight="1">
+    <row r="124" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A124" t="s">
         <v>145</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>11.48</v>
       </c>
     </row>
-    <row r="125" spans="1:18" ht="14.25" customHeight="1">
+    <row r="125" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A125" t="s">
         <v>146</v>
       </c>
@@ -10004,7 +10005,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="14.25" customHeight="1">
+    <row r="126" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A126" t="s">
         <v>230</v>
       </c>
@@ -10062,7 +10063,7 @@
         <v>11.37</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="14.25" customHeight="1">
+    <row r="127" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A127" t="s">
         <v>148</v>
       </c>
@@ -10120,7 +10121,7 @@
         <v>11.34</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="14.25" customHeight="1">
+    <row r="128" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A128" t="s">
         <v>231</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="14.25" customHeight="1">
+    <row r="129" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A129" t="s">
         <v>232</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="14.25" customHeight="1">
+    <row r="130" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A130" t="s">
         <v>149</v>
       </c>
@@ -10294,7 +10295,7 @@
         <v>11.11</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="14.25" customHeight="1">
+    <row r="131" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A131" t="s">
         <v>150</v>
       </c>
@@ -10352,7 +10353,7 @@
         <v>11.09</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="14.25" customHeight="1">
+    <row r="132" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A132" t="s">
         <v>151</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="14.25" customHeight="1">
+    <row r="133" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A133" t="s">
         <v>233</v>
       </c>
@@ -10468,7 +10469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="14.25" customHeight="1">
+    <row r="134" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A134" t="s">
         <v>152</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>10.77</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="14.25" customHeight="1">
+    <row r="135" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A135" t="s">
         <v>154</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>10.66</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="14.25" customHeight="1">
+    <row r="136" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A136" t="s">
         <v>155</v>
       </c>
@@ -10642,7 +10643,7 @@
         <v>10.57</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="14.25" customHeight="1">
+    <row r="137" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A137" t="s">
         <v>156</v>
       </c>
@@ -10700,7 +10701,7 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="14.25" customHeight="1">
+    <row r="138" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A138" t="s">
         <v>234</v>
       </c>
@@ -10758,7 +10759,7 @@
         <v>10.42</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="14.25" customHeight="1">
+    <row r="139" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A139" t="s">
         <v>157</v>
       </c>
@@ -10816,7 +10817,7 @@
         <v>10.02</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="14.25" customHeight="1">
+    <row r="140" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A140" t="s">
         <v>158</v>
       </c>
@@ -10874,7 +10875,7 @@
         <v>9.86</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="14.25" customHeight="1">
+    <row r="141" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A141" t="s">
         <v>159</v>
       </c>
@@ -10932,7 +10933,7 @@
         <v>9.85</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="14.25" customHeight="1">
+    <row r="142" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A142" t="s">
         <v>160</v>
       </c>
@@ -10990,7 +10991,7 @@
         <v>9.7100000000000009</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="14.25" customHeight="1">
+    <row r="143" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -11048,7 +11049,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="14.25" customHeight="1">
+    <row r="144" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A144" t="s">
         <v>162</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>9.2100000000000009</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="14.25" customHeight="1">
+    <row r="145" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A145" t="s">
         <v>163</v>
       </c>
@@ -11164,7 +11165,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="14.25" customHeight="1">
+    <row r="146" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -11222,7 +11223,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="14.25" customHeight="1">
+    <row r="147" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A147" t="s">
         <v>165</v>
       </c>
@@ -11280,7 +11281,7 @@
         <v>5.77</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="14.25" customHeight="1">
+    <row r="148" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A148" t="s">
         <v>235</v>
       </c>
@@ -11338,7 +11339,7 @@
         <v>5.55</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="14.25" customHeight="1">
+    <row r="149" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -11396,7 +11397,7 @@
         <v>5.43</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="14.25" customHeight="1">
+    <row r="150" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A150" t="s">
         <v>167</v>
       </c>
@@ -11454,7 +11455,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="14.25" customHeight="1">
+    <row r="151" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="J151" s="4"/>
@@ -11467,7 +11468,7 @@
       <c r="Q151" s="4"/>
       <c r="R151" s="4"/>
     </row>
-    <row r="152" spans="1:18" ht="14.25" customHeight="1">
+    <row r="152" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
@@ -11478,7 +11479,7 @@
       <c r="Q152" s="4"/>
       <c r="R152" s="4"/>
     </row>
-    <row r="153" spans="1:18" ht="14.25" customHeight="1">
+    <row r="153" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
@@ -11489,7 +11490,7 @@
       <c r="Q153" s="4"/>
       <c r="R153" s="4"/>
     </row>
-    <row r="154" spans="1:18" ht="14.25" customHeight="1">
+    <row r="154" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
       <c r="L154" s="4"/>
@@ -11500,7 +11501,7 @@
       <c r="Q154" s="4"/>
       <c r="R154" s="4"/>
     </row>
-    <row r="155" spans="1:18" ht="14.25" customHeight="1">
+    <row r="155" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
       <c r="L155" s="4"/>
@@ -11511,7 +11512,7 @@
       <c r="Q155" s="4"/>
       <c r="R155" s="4"/>
     </row>
-    <row r="156" spans="1:18" ht="14.25" customHeight="1">
+    <row r="156" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="J156" s="4"/>
@@ -11524,7 +11525,7 @@
       <c r="Q156" s="4"/>
       <c r="R156" s="4"/>
     </row>
-    <row r="157" spans="1:18" ht="14.25" customHeight="1">
+    <row r="157" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
@@ -11535,7 +11536,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="1:18" ht="14.25" customHeight="1">
+    <row r="158" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -11546,7 +11547,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="1:18" ht="14.25" customHeight="1">
+    <row r="159" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
@@ -11557,7 +11558,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="1:18" ht="14.25" customHeight="1">
+    <row r="160" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
@@ -11568,7 +11569,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="1:18" ht="14.25" customHeight="1">
+    <row r="161" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
@@ -11579,7 +11580,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="1:18" ht="14.25" customHeight="1">
+    <row r="162" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="J162" s="4"/>
@@ -11592,7 +11593,7 @@
       <c r="Q162" s="4"/>
       <c r="R162" s="4"/>
     </row>
-    <row r="163" spans="1:18" ht="14.25" customHeight="1">
+    <row r="163" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
@@ -11603,7 +11604,7 @@
       <c r="Q163" s="4"/>
       <c r="R163" s="4"/>
     </row>
-    <row r="164" spans="1:18" ht="14.25" customHeight="1">
+    <row r="164" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
@@ -11614,7 +11615,7 @@
       <c r="Q164" s="4"/>
       <c r="R164" s="4"/>
     </row>
-    <row r="165" spans="1:18" ht="14.25" customHeight="1">
+    <row r="165" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
@@ -11625,7 +11626,7 @@
       <c r="Q165" s="4"/>
       <c r="R165" s="4"/>
     </row>
-    <row r="166" spans="1:18" ht="14.25" customHeight="1">
+    <row r="166" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
@@ -11636,7 +11637,7 @@
       <c r="Q166" s="4"/>
       <c r="R166" s="4"/>
     </row>
-    <row r="167" spans="1:18" ht="14.25" customHeight="1">
+    <row r="167" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
       <c r="L167" s="4"/>
@@ -11647,7 +11648,7 @@
       <c r="Q167" s="4"/>
       <c r="R167" s="4"/>
     </row>
-    <row r="168" spans="1:18" ht="14.25" customHeight="1">
+    <row r="168" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="I168" s="2"/>
@@ -11661,7 +11662,7 @@
       <c r="Q168" s="4"/>
       <c r="R168" s="4"/>
     </row>
-    <row r="169" spans="1:18" ht="14.25" customHeight="1">
+    <row r="169" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -11681,7 +11682,7 @@
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
     </row>
-    <row r="170" spans="1:18" ht="14.25" customHeight="1">
+    <row r="170" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -11701,7 +11702,7 @@
       <c r="Q170" s="4"/>
       <c r="R170" s="4"/>
     </row>
-    <row r="171" spans="1:18" ht="14.25" customHeight="1">
+    <row r="171" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -11721,7 +11722,7 @@
       <c r="Q171" s="4"/>
       <c r="R171" s="4"/>
     </row>
-    <row r="172" spans="1:18" ht="14.25" customHeight="1">
+    <row r="172" spans="1:18" ht="14.25" hidden="1" customHeight="1">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -11741,9 +11742,15 @@
       <c r="Q172" s="4"/>
       <c r="R172" s="4"/>
     </row>
-    <row r="173" spans="1:18" ht="14.25" customHeight="1"/>
+    <row r="173" spans="1:18" ht="14.25" hidden="1" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:E173" xr:uid="{A9BE50D3-CA61-3343-9376-E9D2E2E91AA8}"/>
+  <autoFilter ref="A1:E173" xr:uid="{A9BE50D3-CA61-3343-9376-E9D2E2E91AA8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Rosalee Fleming"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="40">
     <mergeCell ref="A170:R170"/>
     <mergeCell ref="A171:R171"/>
@@ -11800,8 +11807,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -12002,7 +12009,7 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" hidden="1">
       <c r="A11" s="14">
         <v>124</v>
       </c>
@@ -12182,7 +12189,7 @@
       </c>
       <c r="F19" s="14"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" hidden="1">
       <c r="A20" s="14">
         <v>30</v>
       </c>
@@ -12322,7 +12329,7 @@
       </c>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" hidden="1">
       <c r="A27" s="14">
         <v>38</v>
       </c>
@@ -12342,7 +12349,7 @@
       </c>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" hidden="1">
       <c r="A28" s="14">
         <v>33</v>
       </c>
@@ -12542,7 +12549,7 @@
       </c>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" hidden="1">
       <c r="A38" s="14">
         <v>128</v>
       </c>
@@ -12582,7 +12589,7 @@
       </c>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="30">
+    <row r="40" spans="1:6" ht="30" hidden="1">
       <c r="A40" s="14">
         <v>140</v>
       </c>
@@ -12643,7 +12650,7 @@
       </c>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" hidden="1">
       <c r="A43" s="14">
         <v>117</v>
       </c>
@@ -12783,7 +12790,7 @@
       </c>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" hidden="1">
       <c r="A50" s="14">
         <v>20</v>
       </c>
@@ -12823,7 +12830,7 @@
       </c>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" hidden="1">
       <c r="A52" s="14">
         <v>118</v>
       </c>
@@ -12843,7 +12850,7 @@
       </c>
       <c r="F52" s="14"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" hidden="1">
       <c r="A53" s="14">
         <v>115</v>
       </c>
@@ -12943,7 +12950,7 @@
       </c>
       <c r="F57" s="14"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" hidden="1">
       <c r="A58" s="14">
         <v>2</v>
       </c>
@@ -13123,7 +13130,7 @@
       </c>
       <c r="F66" s="14"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" hidden="1">
       <c r="A67" s="14">
         <v>59</v>
       </c>
@@ -13203,7 +13210,7 @@
       </c>
       <c r="F70" s="14"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" hidden="1">
       <c r="A71" s="14">
         <v>64</v>
       </c>
@@ -13223,7 +13230,7 @@
       </c>
       <c r="F71" s="14"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" hidden="1">
       <c r="A72" s="14">
         <v>53</v>
       </c>
@@ -13243,7 +13250,7 @@
       </c>
       <c r="F72" s="14"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" hidden="1">
       <c r="A73" s="14">
         <v>93</v>
       </c>
@@ -13283,7 +13290,7 @@
       </c>
       <c r="F74" s="14"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" hidden="1">
       <c r="A75" s="14">
         <v>137</v>
       </c>
@@ -13303,7 +13310,7 @@
       </c>
       <c r="F75" s="14"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" hidden="1">
       <c r="A76" s="14">
         <v>138</v>
       </c>
@@ -13343,7 +13350,7 @@
       </c>
       <c r="F77" s="14"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" hidden="1">
       <c r="A78" s="14">
         <v>75</v>
       </c>
@@ -13363,7 +13370,7 @@
       </c>
       <c r="F78" s="14"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" hidden="1">
       <c r="A79" s="14">
         <v>26</v>
       </c>
@@ -13383,7 +13390,7 @@
       </c>
       <c r="F79" s="14"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" hidden="1">
       <c r="A80" s="14">
         <v>34</v>
       </c>
@@ -13403,7 +13410,7 @@
       </c>
       <c r="F80" s="14"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" hidden="1">
       <c r="A81" s="14">
         <v>61</v>
       </c>
@@ -13423,7 +13430,7 @@
       </c>
       <c r="F81" s="14"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" hidden="1">
       <c r="A82" s="14">
         <v>10</v>
       </c>
@@ -13443,7 +13450,7 @@
       </c>
       <c r="F82" s="14"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" hidden="1">
       <c r="A83" s="14">
         <v>47</v>
       </c>
@@ -13463,7 +13470,7 @@
       </c>
       <c r="F83" s="14"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" hidden="1">
       <c r="A84" s="14">
         <v>42</v>
       </c>
@@ -13483,7 +13490,7 @@
       </c>
       <c r="F84" s="14"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" hidden="1">
       <c r="A85" s="14">
         <v>43</v>
       </c>
@@ -13503,7 +13510,7 @@
       </c>
       <c r="F85" s="14"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" hidden="1">
       <c r="A86" s="14">
         <v>132</v>
       </c>
@@ -13523,7 +13530,7 @@
       </c>
       <c r="F86" s="14"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" hidden="1">
       <c r="A87" s="14">
         <v>142</v>
       </c>
@@ -13583,7 +13590,7 @@
       </c>
       <c r="F89" s="14"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" hidden="1">
       <c r="A90" s="14">
         <v>44</v>
       </c>
@@ -13623,7 +13630,7 @@
       </c>
       <c r="F91" s="14"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" hidden="1">
       <c r="A92" s="14">
         <v>120</v>
       </c>
@@ -13643,7 +13650,7 @@
       </c>
       <c r="F92" s="14"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" hidden="1">
       <c r="A93" s="14">
         <v>65</v>
       </c>
@@ -13683,7 +13690,7 @@
       </c>
       <c r="F94" s="14"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" hidden="1">
       <c r="A95" s="14">
         <v>68</v>
       </c>
@@ -13723,7 +13730,7 @@
       </c>
       <c r="F96" s="14"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" hidden="1">
       <c r="A97" s="14">
         <v>41</v>
       </c>
@@ -13743,7 +13750,7 @@
       </c>
       <c r="F97" s="14"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" hidden="1">
       <c r="A98" s="14">
         <v>72</v>
       </c>
@@ -13763,7 +13770,7 @@
       </c>
       <c r="F98" s="14"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" hidden="1">
       <c r="A99" s="14">
         <v>77</v>
       </c>
@@ -13823,7 +13830,7 @@
       </c>
       <c r="F101" s="14"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" hidden="1">
       <c r="A102" s="14">
         <v>107</v>
       </c>
@@ -13863,7 +13870,7 @@
       </c>
       <c r="F103" s="14"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" hidden="1">
       <c r="A104" s="14">
         <v>71</v>
       </c>
@@ -13903,7 +13910,7 @@
       </c>
       <c r="F105" s="14"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" hidden="1">
       <c r="A106" s="14">
         <v>146</v>
       </c>
@@ -13943,7 +13950,7 @@
       </c>
       <c r="F107" s="14"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" hidden="1">
       <c r="A108" s="14">
         <v>1</v>
       </c>
@@ -13963,7 +13970,7 @@
       </c>
       <c r="F108" s="14"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" hidden="1">
       <c r="A109" s="14">
         <v>70</v>
       </c>
@@ -13983,7 +13990,7 @@
       </c>
       <c r="F109" s="14"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" hidden="1">
       <c r="A110" s="14">
         <v>92</v>
       </c>
@@ -14003,7 +14010,7 @@
       </c>
       <c r="F110" s="14"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" hidden="1">
       <c r="A111" s="14">
         <v>35</v>
       </c>
@@ -14043,7 +14050,7 @@
       </c>
       <c r="F112" s="14"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" hidden="1">
       <c r="A113" s="14">
         <v>108</v>
       </c>
@@ -14063,7 +14070,7 @@
       </c>
       <c r="F113" s="14"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" hidden="1">
       <c r="A114" s="14">
         <v>116</v>
       </c>
@@ -14083,7 +14090,7 @@
       </c>
       <c r="F114" s="14"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" hidden="1">
       <c r="A115" s="14">
         <v>12</v>
       </c>
@@ -14123,7 +14130,7 @@
       </c>
       <c r="F116" s="14"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" hidden="1">
       <c r="A117" s="14">
         <v>9</v>
       </c>
@@ -14163,7 +14170,7 @@
       </c>
       <c r="F118" s="14"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" hidden="1">
       <c r="A119" s="14">
         <v>46</v>
       </c>
@@ -14203,7 +14210,7 @@
       </c>
       <c r="F120" s="14"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" hidden="1">
       <c r="A121" s="14">
         <v>8</v>
       </c>
@@ -14223,7 +14230,7 @@
       </c>
       <c r="F121" s="14"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" hidden="1">
       <c r="A122" s="14">
         <v>11</v>
       </c>
@@ -14243,7 +14250,7 @@
       </c>
       <c r="F122" s="14"/>
     </row>
-    <row r="123" spans="1:6" ht="15">
+    <row r="123" spans="1:6" ht="15" hidden="1">
       <c r="A123" s="14">
         <v>114</v>
       </c>
@@ -14263,7 +14270,7 @@
       </c>
       <c r="F123" s="14"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" hidden="1">
       <c r="A124" s="14">
         <v>48</v>
       </c>
@@ -14283,7 +14290,7 @@
       </c>
       <c r="F124" s="14"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" hidden="1">
       <c r="A125" s="14">
         <v>85</v>
       </c>
@@ -14303,7 +14310,7 @@
       </c>
       <c r="F125" s="14"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" hidden="1">
       <c r="A126" s="14">
         <v>18</v>
       </c>
@@ -14323,7 +14330,7 @@
       </c>
       <c r="F126" s="14"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" hidden="1">
       <c r="A127" s="14">
         <v>17</v>
       </c>
@@ -14343,7 +14350,7 @@
       </c>
       <c r="F127" s="14"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" hidden="1">
       <c r="A128" s="14">
         <v>141</v>
       </c>
@@ -14363,7 +14370,7 @@
       </c>
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" hidden="1">
       <c r="A129" s="14">
         <v>25</v>
       </c>
@@ -14383,7 +14390,7 @@
       </c>
       <c r="F129" s="14"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" hidden="1">
       <c r="A130" s="14">
         <v>52</v>
       </c>
@@ -14403,7 +14410,7 @@
       </c>
       <c r="F130" s="14"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" hidden="1">
       <c r="A131" s="14">
         <v>87</v>
       </c>
@@ -14423,7 +14430,7 @@
       </c>
       <c r="F131" s="14"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" hidden="1">
       <c r="A132" s="14">
         <v>45</v>
       </c>
@@ -14443,7 +14450,7 @@
       </c>
       <c r="F132" s="14"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" hidden="1">
       <c r="A133" s="14">
         <v>57</v>
       </c>
@@ -14463,7 +14470,7 @@
       </c>
       <c r="F133" s="14"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" hidden="1">
       <c r="A134" s="14">
         <v>81</v>
       </c>
@@ -14483,7 +14490,7 @@
       </c>
       <c r="F134" s="14"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" hidden="1">
       <c r="A135" s="14">
         <v>122</v>
       </c>
@@ -14503,7 +14510,7 @@
       </c>
       <c r="F135" s="14"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" hidden="1">
       <c r="A136" s="14">
         <v>5</v>
       </c>
@@ -14523,7 +14530,7 @@
       </c>
       <c r="F136" s="14"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" hidden="1">
       <c r="A137" s="14">
         <v>89</v>
       </c>
@@ -14543,7 +14550,7 @@
       </c>
       <c r="F137" s="14"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" hidden="1">
       <c r="A138" s="14">
         <v>112</v>
       </c>
@@ -14563,7 +14570,7 @@
       </c>
       <c r="F138" s="14"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" hidden="1">
       <c r="A139" s="14">
         <v>55</v>
       </c>
@@ -14583,7 +14590,7 @@
       </c>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" hidden="1">
       <c r="A140" s="14">
         <v>69</v>
       </c>
@@ -14603,7 +14610,7 @@
       </c>
       <c r="F140" s="14"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" hidden="1">
       <c r="A141" s="14">
         <v>123</v>
       </c>
@@ -14623,7 +14630,7 @@
       </c>
       <c r="F141" s="14"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" hidden="1">
       <c r="A142" s="14">
         <v>74</v>
       </c>
@@ -14663,7 +14670,7 @@
       </c>
       <c r="F143" s="14"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" hidden="1">
       <c r="A144" s="14">
         <v>62</v>
       </c>
@@ -14683,7 +14690,7 @@
       </c>
       <c r="F144" s="14"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" hidden="1">
       <c r="A145" s="14">
         <v>36</v>
       </c>
@@ -14703,7 +14710,7 @@
       </c>
       <c r="F145" s="14"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" hidden="1">
       <c r="A146" s="14">
         <v>139</v>
       </c>
@@ -14723,7 +14730,7 @@
       </c>
       <c r="F146" s="14"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" hidden="1">
       <c r="A147" s="14">
         <v>56</v>
       </c>
@@ -14743,7 +14750,7 @@
       </c>
       <c r="F147" s="14"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" hidden="1">
       <c r="A148" s="14">
         <v>91</v>
       </c>
@@ -14763,7 +14770,7 @@
       </c>
       <c r="F148" s="14"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" hidden="1">
       <c r="A149" s="14">
         <v>144</v>
       </c>
@@ -14784,9 +14791,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:E149" xr:uid="{8BC34573-7E95-C142-B627-E70EEEC0AEA4}">
-    <filterColumn colId="1">
+    <filterColumn colId="3">
       <filters>
-        <filter val="#N/A"/>
+        <filter val="fischer-m"/>
+        <filter val="griffith-j"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E149">
